--- a/results.xlsx
+++ b/results.xlsx
@@ -454,113 +454,241 @@
       <c r="A2" t="n">
         <v>9701041690</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>531.64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06/10/2024</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>9441734906</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>9963670415</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>9885959209</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>112.06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>9701263559</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>185.01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>9512012142</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7975177909</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>9392585166</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8106998199</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7661002004</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>201.42</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9573115575</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>9494777787</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>34.08</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>9398876127</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>9391777914</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>107.62</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>9573301722</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>9177265813</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11/08/2024</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
